--- a/Grand_Annotations.xlsx
+++ b/Grand_Annotations.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3010" uniqueCount="2433">
   <si>
-    <t xml:space="preserve">Line Number (zero-based)</t>
+    <t xml:space="preserve">Line Number (in outdated dataset)</t>
   </si>
   <si>
     <t xml:space="preserve">Lyric Line</t>
@@ -34,7 +34,7 @@
     <t xml:space="preserve">Link</t>
   </si>
   <si>
-    <t xml:space="preserve">Duplicates</t>
+    <t xml:space="preserve">Duplicates?</t>
   </si>
   <si>
     <t xml:space="preserve">Compromise Annotation</t>
@@ -43,13 +43,13 @@
     <t xml:space="preserve">Total Anns</t>
   </si>
   <si>
-    <t xml:space="preserve">Tim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ben</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karan</t>
+    <t xml:space="preserve">Annotator_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annotator_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annotator_3</t>
   </si>
   <si>
     <t xml:space="preserve">Total</t>
@@ -7604,8 +7604,8 @@
   </sheetPr>
   <dimension ref="A1:Y1001"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C303" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I336" activeCellId="0" sqref="I336"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
